--- a/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4784,7 +4785,6 @@
           <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>57.83</t>
@@ -4799,6 +4799,1694 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7903</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7834</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6790</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6772</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6493,4 +6494,1616 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8842</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8106,4 +8107,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8115,7 +8116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8126,17 +8127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8146,14 +8167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.81</v>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8162,14 +8205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.46</v>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8178,14 +8243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.17</v>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8194,13 +8281,1595 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>43.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9768,7 +9769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9779,17 +9780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9799,14 +9820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.34</v>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9815,14 +9858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.81</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9831,14 +9896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.46</v>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -9847,14 +9934,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.17</v>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9863,13 +9972,4347 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1862</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0263</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9151</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6740</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6182</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013956</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>39.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013957</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>43.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14195,7 +14196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14206,17 +14207,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14226,14 +14247,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>115</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.28</v>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -14242,14 +14285,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.34</v>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14258,14 +14323,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.81</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14274,14 +14361,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.46</v>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -14290,14 +14399,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.17</v>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4350</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -14306,13 +14437,6563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2456</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1497</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0959</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9749</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9444</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8119</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8119</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5258</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5193</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4932</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4700</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>35.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>850013</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011755</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>851399</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>174</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>43.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601689-拓普集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>86.73999999999999</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="D3" t="n">
-        <v>46.14</v>
+        <v>86.73999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28</v>
+        <v>46.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D5" t="n">
-        <v>10.34</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>18.81</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>15.46</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>20.17</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2062 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>43.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>208.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>208.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1646</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7975</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9415</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8859</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8859</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6930</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2666,5475 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4638</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1550</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8804</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8594</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5962</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5773</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4064</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银优质精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014840</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商裕华混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011870</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014745</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014744</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>017178</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11744,7 +19262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18408,7 +25926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22834,7 +30352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24486,7 +32004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26098,7 +33616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27786,7 +35304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30113,2036 +37631,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>900011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信证券红利价值一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>208.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.0207</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>900099</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信证券红利价值一年持有混合B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>208.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.0207</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>377240</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1646</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合H</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.1646</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001852</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>76.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.0781</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005962</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>54.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.7975</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009491</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈创新驱动股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>46.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.2514</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>377020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根内需动力混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>31.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.9415</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>900089</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信证券红利价值一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>49.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.4444</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000698</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈科技30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.3455</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>213003</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宝盈策略增长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>18.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.0192</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9303</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>163804</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银收益混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.8859</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.8859</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002083</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.8344</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>375010</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上投摩根中国优势混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>18.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.19</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.6930</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001476</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银智能制造股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.6560</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010114</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>83.89</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5342</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002482</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈互联网沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4800</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002084</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4267</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000124</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝服务优选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4263</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000328</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>上投摩根转型动力混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3844</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>163807</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银优选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.07</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3507</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>519993</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长信增利动态策略混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>75.78</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3179</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006250</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上投摩根动力精选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>84.15</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3141</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2771</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2771</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000073</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>上投摩根成长动力混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2594</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008445</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>融通产业趋势先锋股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2436</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010128</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>宝盈发展新动能股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2261</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005963</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2224</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001471</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>融通新能源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2186</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2071</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009492</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>宝盈创新驱动股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1993</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000794</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1504</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>000796</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1504</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>003769</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中银品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0892</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>000524</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>上投摩根民生需求股票</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0828</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>007527</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001267</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>泰达宏利蓝筹价值混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007261</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>融通消费升级混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>377150</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>上投摩根健康品质生活混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>001482</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>上投摩根新兴服务股票</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华富智慧城市灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010129</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>宝盈发展新动能股票C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>009273</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007528</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>